--- a/EventTimeNormalizer/sample/data - Copy (2).xlsx
+++ b/EventTimeNormalizer/sample/data - Copy (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>host_name</t>
   </si>
@@ -43,17 +43,33 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>EPDBACP502</t>
+  </si>
+  <si>
+    <t>EPDBACP503</t>
+  </si>
+  <si>
+    <t>EPDBACP504</t>
+  </si>
+  <si>
+    <t>EPDBACP505</t>
+  </si>
+  <si>
+    <t>EPDBACP506</t>
+  </si>
+  <si>
+    <t>EPDBACP507</t>
+  </si>
+  <si>
+    <t>EPDBACP508</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -83,14 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -395,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:J25"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +446,7 @@
       <c r="C2" s="3">
         <v>15</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>41391</v>
       </c>
       <c r="E2" s="1"/>
@@ -448,8 +461,8 @@
       <c r="C3" s="3">
         <v>50</v>
       </c>
-      <c r="D3" s="4">
-        <v>41391.041666666701</v>
+      <c r="D3" s="1">
+        <v>41392</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -462,8 +475,8 @@
       <c r="C4" s="3">
         <v>12</v>
       </c>
-      <c r="D4" s="5">
-        <v>41391.083333333299</v>
+      <c r="D4" s="1">
+        <v>41393</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -476,8 +489,8 @@
       <c r="C5" s="3">
         <v>60</v>
       </c>
-      <c r="D5" s="5">
-        <v>41391.125</v>
+      <c r="D5" s="1">
+        <v>41394</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -490,8 +503,8 @@
       <c r="C6" s="3">
         <v>11</v>
       </c>
-      <c r="D6" s="6">
-        <v>41391.166666666701</v>
+      <c r="D6" s="1">
+        <v>41395</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -504,8 +517,8 @@
       <c r="C7" s="3">
         <v>14</v>
       </c>
-      <c r="D7" s="6">
-        <v>41391.208333333299</v>
+      <c r="D7" s="1">
+        <v>41396</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,8 +531,8 @@
       <c r="C8" s="3">
         <v>12</v>
       </c>
-      <c r="D8" s="4">
-        <v>41391.25</v>
+      <c r="D8" s="1">
+        <v>41397</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -532,8 +545,8 @@
       <c r="C9" s="3">
         <v>11</v>
       </c>
-      <c r="D9" s="4">
-        <v>41391.291666666701</v>
+      <c r="D9" s="1">
+        <v>41398</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -546,8 +559,8 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="4">
-        <v>41391.333333333299</v>
+      <c r="D10" s="1">
+        <v>41399</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -560,8 +573,8 @@
       <c r="C11" s="3">
         <v>11</v>
       </c>
-      <c r="D11" s="4">
-        <v>41391.375</v>
+      <c r="D11" s="1">
+        <v>41400</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -574,8 +587,8 @@
       <c r="C12" s="3">
         <v>9</v>
       </c>
-      <c r="D12" s="4">
-        <v>41391.416666666701</v>
+      <c r="D12" s="1">
+        <v>41401</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -588,8 +601,8 @@
       <c r="C13" s="3">
         <v>100</v>
       </c>
-      <c r="D13" s="4">
-        <v>41391.458333333299</v>
+      <c r="D13" s="1">
+        <v>41402</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -602,8 +615,8 @@
       <c r="C14" s="3">
         <v>500</v>
       </c>
-      <c r="D14" s="4">
-        <v>41391.5</v>
+      <c r="D14" s="1">
+        <v>41403</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -616,8 +629,8 @@
       <c r="C15" s="3">
         <v>125</v>
       </c>
-      <c r="D15" s="4">
-        <v>41391.541666666701</v>
+      <c r="D15" s="1">
+        <v>41404</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -630,8 +643,232 @@
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="4">
-        <v>41391.583333333299</v>
+      <c r="D16" s="1">
+        <v>41405</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1">
+        <v>41406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1">
+        <v>41407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1">
+        <v>41408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1">
+        <v>41409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="3">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>41410</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>41411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>41412</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>41413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>41414</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>41415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="3">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>41416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>41417</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>41418</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>41419</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="3">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1">
+        <v>41420</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1">
+        <v>41421</v>
       </c>
     </row>
   </sheetData>

--- a/EventTimeNormalizer/sample/data - Copy (2).xlsx
+++ b/EventTimeNormalizer/sample/data - Copy (2).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t>host_name</t>
   </si>
@@ -43,27 +43,6 @@
   </si>
   <si>
     <t>Extra</t>
-  </si>
-  <si>
-    <t>EPDBACP502</t>
-  </si>
-  <si>
-    <t>EPDBACP503</t>
-  </si>
-  <si>
-    <t>EPDBACP504</t>
-  </si>
-  <si>
-    <t>EPDBACP505</t>
-  </si>
-  <si>
-    <t>EPDBACP506</t>
-  </si>
-  <si>
-    <t>EPDBACP507</t>
-  </si>
-  <si>
-    <t>EPDBACP508</t>
   </si>
 </sst>
 </file>
@@ -408,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E16" sqref="A15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,256 +599,80 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <v>125</v>
-      </c>
-      <c r="D15" s="1">
-        <v>41404</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1">
-        <v>41405</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4</v>
-      </c>
-      <c r="D17" s="1">
-        <v>41406</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>4</v>
-      </c>
-      <c r="D18" s="1">
-        <v>41407</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>4</v>
-      </c>
-      <c r="D19" s="1">
-        <v>41408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>4</v>
-      </c>
-      <c r="D20" s="1">
-        <v>41409</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3">
-        <v>4</v>
-      </c>
-      <c r="D21" s="1">
-        <v>41410</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3">
-        <v>4</v>
-      </c>
-      <c r="D22" s="1">
-        <v>41411</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>41412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="3">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>41413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3">
-        <v>4</v>
-      </c>
-      <c r="D25" s="1">
-        <v>41414</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>4</v>
-      </c>
-      <c r="D26" s="1">
-        <v>41415</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1">
-        <v>41416</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="3">
-        <v>4</v>
-      </c>
-      <c r="D28" s="1">
-        <v>41417</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1">
-        <v>41418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="3">
-        <v>4</v>
-      </c>
-      <c r="D30" s="1">
-        <v>41419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="3">
-        <v>4</v>
-      </c>
-      <c r="D31" s="1">
-        <v>41420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" s="3">
-        <v>4</v>
-      </c>
-      <c r="D32" s="1">
-        <v>41421</v>
-      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17" s="3"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="3"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="3"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20" s="3"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="3"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22" s="3"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23" s="3"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="3"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="3"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C27" s="3"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="3"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="3"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="3"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="3"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="3"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="3"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
